--- a/src/main/java/com/jostens/qa/testdata/Jostens2.xlsx
+++ b/src/main/java/com/jostens/qa/testdata/Jostens2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2CF74FF2-3D04-492E-94E5-378D7970EE93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A881B797-338B-4EC2-B5CF-BAE62AF95EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="345" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="133">
   <si>
     <t>School Name</t>
   </si>
@@ -324,66 +324,12 @@
     <t>Information - Jostens School Store</t>
   </si>
   <si>
-    <t>Success - 2021/01/31 18:47:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:47:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:49:13</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:49:16</t>
-  </si>
-  <si>
-    <t>Failure - 2021/01/31 18:49:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:49:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:49:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:57:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:57:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:58:17</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:58:47</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:59:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:59:17</t>
-  </si>
-  <si>
-    <t>Failure - 2021/01/31 18:59:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:59:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 18:59:50</t>
-  </si>
-  <si>
     <t>Success - 2021/01/31 19:33:57</t>
   </si>
   <si>
     <t>Success - 2021/01/31 19:34:00</t>
   </si>
   <si>
-    <t>Success - 2021/01/31 19:34:35</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:35:05</t>
-  </si>
-  <si>
     <t>Success - 2021/01/31 19:35:37</t>
   </si>
   <si>
@@ -396,10 +342,88 @@
     <t>Success - 2021/01/31 19:36:02</t>
   </si>
   <si>
-    <t>Success - 2021/01/31 19:36:10</t>
-  </si>
-  <si>
     <t>Success - 2021/01/31 19:36:11</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>If no data in row, the @Test will be skipped</t>
+  </si>
+  <si>
+    <t>This row will fail due to 'Checkout Page Title'</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:12:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:12:12</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:12:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:13:15</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:13:46</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:13:47</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:13:48</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:13:49</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:16:33</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:16:36</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:17:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:17:42</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:18:10</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:18:12</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:19:51</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:19:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:20:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:20:58</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:21:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:21:29</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:21:30</t>
+  </si>
+  <si>
+    <t>Failure - 2021/01/31 21:21:40</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:21:48</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 21:21:56</t>
   </si>
 </sst>
 </file>
@@ -760,7 +784,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -771,7 +795,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -830,7 +854,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1003,7 +1027,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1026,7 +1050,7 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1049,7 +1073,7 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1083,7 +1107,7 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1132,8 +1156,11 @@
       <c r="P1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1180,10 +1207,13 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1230,10 +1260,10 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1280,7 +1310,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1295,7 +1325,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1339,7 @@
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1328,11 +1358,17 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/com/jostens/qa/testdata/Jostens2.xlsx
+++ b/src/main/java/com/jostens/qa/testdata/Jostens2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="160">
   <si>
     <t>School Name</t>
   </si>
@@ -424,6 +424,87 @@
   </si>
   <si>
     <t>Success - 2021/01/31 21:21:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:24:29</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:24:33</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/06 20:24:44</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/06 20:25:00</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/06 20:26:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:44:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:44:17</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:44:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:45:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:45:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:45:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:45:56</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/06 21:46:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:46:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:46:21</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:46:22</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:12:10</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:12:13</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:12:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:13:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:13:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:13:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:13:44</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/07 14:13:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:14:01</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:14:09</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:14:10</t>
   </si>
 </sst>
 </file>
@@ -784,7 +865,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +876,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1027,7 +1108,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,7 +1131,7 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,7 +1154,7 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1207,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="Q2" t="s">
         <v>108</v>
@@ -1260,7 +1341,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1310,7 +1391,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/jostens/qa/testdata/Jostens2.xlsx
+++ b/src/main/java/com/jostens/qa/testdata/Jostens2.xlsx
@@ -3,21 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A881B797-338B-4EC2-B5CF-BAE62AF95EF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\selenium-workplace\Jostens5\src\main\java\com\jostens\qa\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59FB2C6-DC20-421C-A1A9-7A435A4BD7AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="345" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="School Search" sheetId="2" r:id="rId1"/>
-    <sheet name="Product Search" sheetId="3" r:id="rId2"/>
-    <sheet name="Shopping Cart" sheetId="5" r:id="rId3"/>
-    <sheet name="Checkout" sheetId="6" r:id="rId4"/>
-    <sheet name="Payment" sheetId="7" r:id="rId5"/>
+    <sheet name="Login" sheetId="8" r:id="rId1"/>
+    <sheet name="School Search" sheetId="2" r:id="rId2"/>
+    <sheet name="Product Search" sheetId="3" r:id="rId3"/>
+    <sheet name="Shopping Cart" sheetId="5" r:id="rId4"/>
+    <sheet name="Checkout" sheetId="6" r:id="rId5"/>
+    <sheet name="Payment" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S21"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="116">
   <si>
     <t>School Name</t>
   </si>
@@ -324,27 +329,6 @@
     <t>Information - Jostens School Store</t>
   </si>
   <si>
-    <t>Success - 2021/01/31 19:33:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:34:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:35:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:35:40</t>
-  </si>
-  <si>
-    <t>Failure - 2021/01/31 19:35:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:36:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:36:11</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -354,138 +338,12 @@
     <t>This row will fail due to 'Checkout Page Title'</t>
   </si>
   <si>
-    <t>Success - 2021/01/31 21:12:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:12:12</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:12:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:13:15</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:13:46</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:13:47</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:13:48</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:13:49</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:16:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:16:36</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:17:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:17:42</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:18:10</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:18:12</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:19:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:19:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:20:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:20:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:21:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:21:29</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:21:30</t>
-  </si>
-  <si>
-    <t>Failure - 2021/01/31 21:21:40</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:21:48</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 21:21:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:24:29</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:24:33</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/06 20:24:44</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/06 20:25:00</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/06 20:26:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:44:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:44:17</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:44:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:45:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:45:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:45:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:45:56</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/06 21:46:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:46:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:46:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:46:22</t>
-  </si>
-  <si>
     <t>Success - 2021/02/07 14:12:10</t>
   </si>
   <si>
     <t>Success - 2021/02/07 14:12:13</t>
   </si>
   <si>
-    <t>Success - 2021/02/07 14:12:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:13:14</t>
-  </si>
-  <si>
     <t>Success - 2021/02/07 14:13:41</t>
   </si>
   <si>
@@ -501,17 +359,31 @@
     <t>Success - 2021/02/07 14:14:01</t>
   </si>
   <si>
-    <t>Success - 2021/02/07 14:14:09</t>
-  </si>
-  <si>
     <t>Success - 2021/02/07 14:14:10</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,49 +706,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A4BB60-394F-4E34-A0A0-165D968C2705}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="76.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -885,6 +751,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -892,15 +809,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -935,7 +852,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1048,7 +965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1056,13 +973,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1108,7 +1025,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1131,7 +1048,7 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,7 +1071,7 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -1170,22 +1087,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1238,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1288,10 +1205,10 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1341,7 +1258,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1391,7 +1308,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1404,20 +1321,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1440,7 +1357,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1448,7 +1365,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
